--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533995.7264749315</v>
+        <v>531450.5500594502</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10025088.53578911</v>
+        <v>10025088.5357891</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980815</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477569</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>173.1743245100106</v>
       </c>
       <c r="F11" t="n">
-        <v>150.8988338687786</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805274</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U11" t="n">
         <v>209.418242185976</v>
       </c>
       <c r="V11" t="n">
-        <v>286.1753286972089</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
-        <v>307.664038944487</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X11" t="n">
-        <v>328.154170905543</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y11" t="n">
         <v>344.6610088831276</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257018</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452863</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500052</v>
+        <v>29.92203912074919</v>
       </c>
       <c r="G13" t="n">
-        <v>100.6083415935784</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H13" t="n">
         <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691212</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712134</v>
+        <v>47.35522289712139</v>
       </c>
       <c r="S13" t="n">
         <v>148.1920955585159</v>
@@ -1585,13 +1585,13 @@
         <v>244.6349084326869</v>
       </c>
       <c r="V13" t="n">
-        <v>210.560713550902</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W13" t="n">
-        <v>244.946068563665</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161111</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y13" t="n">
         <v>177.0077235791688</v>
@@ -1607,10 +1607,10 @@
         <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>340.3534402993358</v>
@@ -1619,10 +1619,10 @@
         <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
-        <v>123.0418928196246</v>
+        <v>220.6378033538592</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.6108320152499</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T14" t="n">
         <v>162.3410403666942</v>
@@ -1664,7 +1664,7 @@
         <v>209.418242185976</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W14" t="n">
         <v>307.6640389444871</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,13 +1768,13 @@
         <v>125.6698913257019</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
         <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>29.92203912074909</v>
       </c>
       <c r="G16" t="n">
         <v>124.4488784861023</v>
@@ -1783,7 +1783,7 @@
         <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691216</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.69619637623959</v>
+        <v>47.35522289712137</v>
       </c>
       <c r="S16" t="n">
         <v>148.1920955585159</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.0618795246037</v>
+        <v>332.0618795246036</v>
       </c>
       <c r="C17" t="n">
-        <v>314.6009296321307</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>331.2584079333849</v>
+        <v>331.2584079333848</v>
       </c>
       <c r="F17" t="n">
-        <v>356.2040836028346</v>
+        <v>356.2040836028345</v>
       </c>
       <c r="G17" t="n">
-        <v>359.6514475679567</v>
+        <v>320.6831593793204</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9358022484437</v>
+        <v>243.9358022484435</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.51579964929903</v>
+        <v>58.51579964929889</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>153.2460080007432</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>200.323209820025</v>
       </c>
       <c r="V17" t="n">
-        <v>277.0802963312581</v>
+        <v>277.080296331258</v>
       </c>
       <c r="W17" t="n">
-        <v>298.5690065785362</v>
+        <v>298.5690065785361</v>
       </c>
       <c r="X17" t="n">
-        <v>319.0591385395922</v>
+        <v>319.0591385395921</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.5659765171768</v>
+        <v>335.5659765171766</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.1600180430605</v>
+        <v>129.1600180430603</v>
       </c>
       <c r="C19" t="n">
-        <v>116.574858959751</v>
+        <v>116.5748589597509</v>
       </c>
       <c r="D19" t="n">
-        <v>97.94351087933555</v>
+        <v>97.94351087933541</v>
       </c>
       <c r="E19" t="n">
-        <v>95.76200050769236</v>
+        <v>95.76200050769222</v>
       </c>
       <c r="F19" t="n">
-        <v>94.74908588405444</v>
+        <v>94.7490858840543</v>
       </c>
       <c r="G19" t="n">
-        <v>115.3538461201514</v>
+        <v>115.3538461201513</v>
       </c>
       <c r="H19" t="n">
-        <v>94.08305277544397</v>
+        <v>94.08305277544383</v>
       </c>
       <c r="I19" t="n">
-        <v>45.6804582709613</v>
+        <v>45.68045827096115</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.26019053117054</v>
+        <v>38.26019053117038</v>
       </c>
       <c r="S19" t="n">
-        <v>139.0970631925651</v>
+        <v>139.0970631925649</v>
       </c>
       <c r="T19" t="n">
-        <v>168.8769871372924</v>
+        <v>168.8769871372922</v>
       </c>
       <c r="U19" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667359</v>
       </c>
       <c r="V19" t="n">
-        <v>201.4656811849512</v>
+        <v>201.4656811849511</v>
       </c>
       <c r="W19" t="n">
-        <v>235.8510361977142</v>
+        <v>235.8510361977141</v>
       </c>
       <c r="X19" t="n">
-        <v>175.0376932501603</v>
+        <v>175.0376932501602</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.912691213218</v>
+        <v>167.9126912132178</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.0618795246037</v>
+        <v>332.0618795246036</v>
       </c>
       <c r="C20" t="n">
-        <v>314.6009296321307</v>
+        <v>314.6009296321306</v>
       </c>
       <c r="D20" t="n">
-        <v>304.0110794818061</v>
+        <v>304.011079481806</v>
       </c>
       <c r="E20" t="n">
-        <v>331.2584079333849</v>
+        <v>29.28387828702697</v>
       </c>
       <c r="F20" t="n">
-        <v>356.2040836028345</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145765</v>
       </c>
       <c r="H20" t="n">
-        <v>133.0849731664684</v>
+        <v>243.9358022484435</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.51579964929889</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>153.2460080007432</v>
       </c>
       <c r="U20" t="n">
-        <v>200.3232098200251</v>
+        <v>200.323209820025</v>
       </c>
       <c r="V20" t="n">
-        <v>277.0802963312581</v>
+        <v>277.080296331258</v>
       </c>
       <c r="W20" t="n">
         <v>298.5690065785361</v>
@@ -2147,7 +2147,7 @@
         <v>319.0591385395921</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>335.5659765171766</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430603</v>
       </c>
       <c r="C22" t="n">
-        <v>116.574858959751</v>
+        <v>116.5748589597509</v>
       </c>
       <c r="D22" t="n">
-        <v>97.94351087933549</v>
+        <v>97.94351087933541</v>
       </c>
       <c r="E22" t="n">
-        <v>95.76200050769231</v>
+        <v>95.76200050769222</v>
       </c>
       <c r="F22" t="n">
-        <v>94.74908588405438</v>
+        <v>94.7490858840543</v>
       </c>
       <c r="G22" t="n">
-        <v>115.3538461201514</v>
+        <v>115.3538461201513</v>
       </c>
       <c r="H22" t="n">
-        <v>94.08305277544392</v>
+        <v>94.08305277544383</v>
       </c>
       <c r="I22" t="n">
-        <v>45.68045827096125</v>
+        <v>45.68045827096115</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.26019053117048</v>
+        <v>38.26019053117038</v>
       </c>
       <c r="S22" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925649</v>
       </c>
       <c r="T22" t="n">
-        <v>168.8769871372923</v>
+        <v>168.8769871372922</v>
       </c>
       <c r="U22" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667359</v>
       </c>
       <c r="V22" t="n">
         <v>201.4656811849511</v>
@@ -2302,10 +2302,10 @@
         <v>235.8510361977141</v>
       </c>
       <c r="X22" t="n">
-        <v>175.0376932501603</v>
+        <v>175.0376932501602</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.9126912132179</v>
+        <v>167.9126912132178</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.0618795246037</v>
+        <v>332.0618795246036</v>
       </c>
       <c r="C23" t="n">
-        <v>314.6009296321307</v>
+        <v>314.6009296321306</v>
       </c>
       <c r="D23" t="n">
-        <v>304.0110794818061</v>
+        <v>304.011079481806</v>
       </c>
       <c r="E23" t="n">
-        <v>331.2584079333849</v>
+        <v>331.2584079333848</v>
       </c>
       <c r="F23" t="n">
         <v>356.2040836028345</v>
       </c>
       <c r="G23" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145765</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9358022484436</v>
+        <v>243.9358022484435</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.51579964929898</v>
+        <v>58.51579964929889</v>
       </c>
       <c r="T23" t="n">
-        <v>153.2460080007433</v>
+        <v>153.2460080007432</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3232098200251</v>
+        <v>200.323209820025</v>
       </c>
       <c r="V23" t="n">
-        <v>277.0802963312581</v>
+        <v>277.080296331258</v>
       </c>
       <c r="W23" t="n">
         <v>298.5690065785361</v>
@@ -2384,7 +2384,7 @@
         <v>319.0591385395921</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.5659765171768</v>
+        <v>335.5659765171766</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430603</v>
       </c>
       <c r="C25" t="n">
-        <v>116.574858959751</v>
+        <v>116.5748589597509</v>
       </c>
       <c r="D25" t="n">
-        <v>97.94351087933549</v>
+        <v>97.94351087933541</v>
       </c>
       <c r="E25" t="n">
-        <v>95.76200050769231</v>
+        <v>95.76200050769222</v>
       </c>
       <c r="F25" t="n">
-        <v>94.74908588405438</v>
+        <v>94.7490858840543</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3538461201514</v>
+        <v>115.3538461201513</v>
       </c>
       <c r="H25" t="n">
-        <v>94.08305277544392</v>
+        <v>94.08305277544383</v>
       </c>
       <c r="I25" t="n">
-        <v>45.68045827096125</v>
+        <v>45.68045827096115</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.26019053117048</v>
+        <v>38.26019053117038</v>
       </c>
       <c r="S25" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925649</v>
       </c>
       <c r="T25" t="n">
-        <v>168.8769871372923</v>
+        <v>168.8769871372922</v>
       </c>
       <c r="U25" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667359</v>
       </c>
       <c r="V25" t="n">
         <v>201.4656811849511</v>
@@ -2539,10 +2539,10 @@
         <v>235.8510361977141</v>
       </c>
       <c r="X25" t="n">
-        <v>175.0376932501603</v>
+        <v>175.0376932501602</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.9126912132179</v>
+        <v>167.9126912132178</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,16 +2849,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957274</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128502</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695832</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,10 +3724,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124554</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,22 +4135,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1834.623205835087</v>
+        <v>1257.745645963877</v>
       </c>
       <c r="C11" t="n">
-        <v>1507.657587655207</v>
+        <v>930.7800277839967</v>
       </c>
       <c r="D11" t="n">
-        <v>1191.388787808988</v>
+        <v>614.5112279377774</v>
       </c>
       <c r="E11" t="n">
-        <v>847.5974339712748</v>
+        <v>439.5876678266557</v>
       </c>
       <c r="F11" t="n">
-        <v>695.174369457357</v>
+        <v>439.5876678266557</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5045,46 +5045,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U11" t="n">
-        <v>3114.072243643538</v>
+        <v>2881.797625075919</v>
       </c>
       <c r="V11" t="n">
-        <v>2825.006255060498</v>
+        <v>2592.73163649288</v>
       </c>
       <c r="W11" t="n">
-        <v>2514.234498550916</v>
+        <v>2281.959879983297</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.765639050368</v>
+        <v>1950.491020482748</v>
       </c>
       <c r="Y11" t="n">
-        <v>1834.623205835087</v>
+        <v>1602.348587267468</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>667.6378438997377</v>
+        <v>667.6378438997365</v>
       </c>
       <c r="C13" t="n">
-        <v>540.6985597323621</v>
+        <v>540.6985597323609</v>
       </c>
       <c r="D13" t="n">
-        <v>432.5788190805577</v>
+        <v>432.5788190805566</v>
       </c>
       <c r="E13" t="n">
-        <v>432.5788190805577</v>
+        <v>326.6626242586948</v>
       </c>
       <c r="F13" t="n">
-        <v>327.6857703431786</v>
+        <v>296.4383423185441</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749176</v>
+        <v>170.7324044537944</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>152.7959093543157</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783888</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L13" t="n">
         <v>755.6652117020815</v>
@@ -5230,19 +5230,19 @@
         <v>1879.29157132554</v>
       </c>
       <c r="U13" t="n">
-        <v>1632.185603211716</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V13" t="n">
-        <v>1419.49801376636</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W13" t="n">
-        <v>1172.077742489931</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X13" t="n">
-        <v>986.0850903524447</v>
+        <v>986.0850903524438</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.289409969446</v>
+        <v>807.2894099694449</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.811634546915</v>
+        <v>1257.745645963875</v>
       </c>
       <c r="C14" t="n">
-        <v>1219.846016367035</v>
+        <v>1257.745645963875</v>
       </c>
       <c r="D14" t="n">
-        <v>903.5772165208157</v>
+        <v>1257.745645963875</v>
       </c>
       <c r="E14" t="n">
-        <v>559.7858626831028</v>
+        <v>913.9542921261625</v>
       </c>
       <c r="F14" t="n">
-        <v>190.7968566540265</v>
+        <v>544.9652860970862</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>322.098818062885</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5279,7 +5279,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,10 +5288,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5312,16 +5312,16 @@
         <v>2881.797625075918</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.797625075918</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W14" t="n">
-        <v>2571.025868566335</v>
+        <v>2281.959879983296</v>
       </c>
       <c r="X14" t="n">
-        <v>2239.557009065787</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y14" t="n">
-        <v>1891.414575850506</v>
+        <v>1602.348587267466</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>689.5156484662841</v>
+        <v>667.6378438997365</v>
       </c>
       <c r="C16" t="n">
-        <v>562.5763642989085</v>
+        <v>540.6985597323608</v>
       </c>
       <c r="D16" t="n">
-        <v>562.5763642989085</v>
+        <v>432.5788190805565</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770467</v>
+        <v>326.6626242586947</v>
       </c>
       <c r="F16" t="n">
-        <v>351.7671207396677</v>
+        <v>296.4383423185441</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749177</v>
+        <v>170.7324044537943</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543159</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783887</v>
+        <v>397.944252778389</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020815</v>
+        <v>755.6652117020817</v>
       </c>
       <c r="M16" t="n">
-        <v>1140.983417776827</v>
+        <v>1140.983417776828</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957888</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262354</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q16" t="n">
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2230.628077974673</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.93909256203</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T16" t="n">
-        <v>1901.169375892087</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U16" t="n">
-        <v>1654.063407778262</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V16" t="n">
-        <v>1441.375818332907</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.955547056477</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X16" t="n">
-        <v>1007.962894918991</v>
+        <v>986.0850903524437</v>
       </c>
       <c r="Y16" t="n">
-        <v>829.1672145359926</v>
+        <v>807.2894099694448</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1688.381481063246</v>
+        <v>1331.240857001864</v>
       </c>
       <c r="C17" t="n">
-        <v>1370.602764263113</v>
+        <v>1331.240857001864</v>
       </c>
       <c r="D17" t="n">
-        <v>1370.602764263113</v>
+        <v>1331.240857001864</v>
       </c>
       <c r="E17" t="n">
-        <v>1035.998311805148</v>
+        <v>996.6364045438991</v>
       </c>
       <c r="F17" t="n">
-        <v>676.1962071558202</v>
+        <v>636.8342998945712</v>
       </c>
       <c r="G17" t="n">
-        <v>312.9119166831366</v>
+        <v>312.9119166831365</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5543,22 +5543,22 @@
         <v>3266.498953276545</v>
       </c>
       <c r="T17" t="n">
-        <v>3266.498953276545</v>
+        <v>3111.705005801047</v>
       </c>
       <c r="U17" t="n">
-        <v>3266.498953276545</v>
+        <v>2909.358329215163</v>
       </c>
       <c r="V17" t="n">
-        <v>2986.619866073254</v>
+        <v>2629.479242011872</v>
       </c>
       <c r="W17" t="n">
-        <v>2685.03501094342</v>
+        <v>2327.894386882038</v>
       </c>
       <c r="X17" t="n">
-        <v>2362.75305282262</v>
+        <v>2005.612428761238</v>
       </c>
       <c r="Y17" t="n">
-        <v>2023.797520987088</v>
+        <v>1666.656896925706</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.3270794598502</v>
+        <v>733.3270794598492</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5746966722229</v>
+        <v>615.574696672222</v>
       </c>
       <c r="D19" t="n">
-        <v>516.6418574001668</v>
+        <v>516.641857400166</v>
       </c>
       <c r="E19" t="n">
-        <v>419.9125639580533</v>
+        <v>419.9125639580527</v>
       </c>
       <c r="F19" t="n">
-        <v>324.2064166004225</v>
+        <v>324.2064166004221</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6873801154211</v>
+        <v>207.6873801154208</v>
       </c>
       <c r="H19" t="n">
-        <v>112.6539934735585</v>
+        <v>112.6539934735583</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>161.799991396607</v>
+        <v>161.7999913966071</v>
       </c>
       <c r="K19" t="n">
-        <v>415.9524168629713</v>
+        <v>415.9524168629717</v>
       </c>
       <c r="L19" t="n">
-        <v>782.6774578289555</v>
+        <v>782.677457828956</v>
       </c>
       <c r="M19" t="n">
         <v>1176.999745945993</v>
       </c>
       <c r="N19" t="n">
-        <v>1568.573365169345</v>
+        <v>1568.573365169346</v>
       </c>
       <c r="O19" t="n">
-        <v>1918.068206607247</v>
+        <v>1879.20791592878</v>
       </c>
       <c r="P19" t="n">
-        <v>2161.98065887993</v>
+        <v>2161.980658879927</v>
       </c>
       <c r="Q19" t="n">
-        <v>2239.590955032445</v>
+        <v>2239.590955032442</v>
       </c>
       <c r="R19" t="n">
-        <v>2200.944297930252</v>
+        <v>2200.94429793025</v>
       </c>
       <c r="S19" t="n">
-        <v>2060.442213897358</v>
+        <v>2060.442213897356</v>
       </c>
       <c r="T19" t="n">
-        <v>1889.859398607164</v>
+        <v>1889.859398607162</v>
       </c>
       <c r="U19" t="n">
-        <v>1651.940331873087</v>
+        <v>1651.940331873085</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.43964380748</v>
+        <v>1448.439643807478</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.206273910798</v>
+        <v>1210.206273910797</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.400523153061</v>
+        <v>1033.40052315306</v>
       </c>
       <c r="Y19" t="n">
-        <v>863.7917441498103</v>
+        <v>863.7917441498091</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1884.097204645519</v>
+        <v>1331.240857001864</v>
       </c>
       <c r="C20" t="n">
-        <v>1566.318487845387</v>
+        <v>1013.462140201732</v>
       </c>
       <c r="D20" t="n">
-        <v>1259.236589378916</v>
+        <v>706.3802417352613</v>
       </c>
       <c r="E20" t="n">
-        <v>924.6321369209516</v>
+        <v>676.8005666978602</v>
       </c>
       <c r="F20" t="n">
-        <v>564.8300322716236</v>
+        <v>676.8005666978602</v>
       </c>
       <c r="G20" t="n">
-        <v>200.941382256899</v>
+        <v>312.9119166831364</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3266.498953276545</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3111.705005801047</v>
       </c>
       <c r="U20" t="n">
-        <v>3123.259145023287</v>
+        <v>2909.358329215163</v>
       </c>
       <c r="V20" t="n">
-        <v>2843.380057819996</v>
+        <v>2629.479242011872</v>
       </c>
       <c r="W20" t="n">
-        <v>2541.795202690161</v>
+        <v>2327.894386882038</v>
       </c>
       <c r="X20" t="n">
-        <v>2219.513244569361</v>
+        <v>2005.612428761238</v>
       </c>
       <c r="Y20" t="n">
-        <v>2219.513244569361</v>
+        <v>1666.656896925706</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,16 +5832,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.3270794598498</v>
+        <v>733.3270794598492</v>
       </c>
       <c r="C22" t="n">
-        <v>615.5746966722226</v>
+        <v>615.574696672222</v>
       </c>
       <c r="D22" t="n">
-        <v>516.6418574001665</v>
+        <v>516.641857400166</v>
       </c>
       <c r="E22" t="n">
-        <v>419.9125639580531</v>
+        <v>419.9125639580527</v>
       </c>
       <c r="F22" t="n">
-        <v>324.2064166004224</v>
+        <v>324.2064166004221</v>
       </c>
       <c r="G22" t="n">
-        <v>207.687380115421</v>
+        <v>207.6873801154208</v>
       </c>
       <c r="H22" t="n">
-        <v>112.6539934735584</v>
+        <v>112.6539934735583</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>161.799991396607</v>
+        <v>161.7999913966071</v>
       </c>
       <c r="K22" t="n">
-        <v>377.0921261845057</v>
+        <v>415.9524168629717</v>
       </c>
       <c r="L22" t="n">
-        <v>743.8171671504899</v>
+        <v>732.5122153114678</v>
       </c>
       <c r="M22" t="n">
-        <v>1138.139455267527</v>
+        <v>1126.834503428505</v>
       </c>
       <c r="N22" t="n">
-        <v>1479.547831973392</v>
+        <v>1479.54783197339</v>
       </c>
       <c r="O22" t="n">
-        <v>1829.042673411293</v>
+        <v>1829.042673411292</v>
       </c>
       <c r="P22" t="n">
-        <v>2111.81541636244</v>
+        <v>2111.815416362439</v>
       </c>
       <c r="Q22" t="n">
-        <v>2239.590955032443</v>
+        <v>2239.590955032442</v>
       </c>
       <c r="R22" t="n">
-        <v>2200.944297930251</v>
+        <v>2200.94429793025</v>
       </c>
       <c r="S22" t="n">
-        <v>2060.442213897357</v>
+        <v>2060.442213897356</v>
       </c>
       <c r="T22" t="n">
-        <v>1889.859398607163</v>
+        <v>1889.859398607162</v>
       </c>
       <c r="U22" t="n">
-        <v>1651.940331873086</v>
+        <v>1651.940331873085</v>
       </c>
       <c r="V22" t="n">
-        <v>1448.439643807479</v>
+        <v>1448.439643807478</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.206273910798</v>
+        <v>1210.206273910797</v>
       </c>
       <c r="X22" t="n">
         <v>1033.40052315306</v>
       </c>
       <c r="Y22" t="n">
-        <v>863.7917441498098</v>
+        <v>863.7917441498091</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2009.635634624203</v>
+        <v>2009.635634624202</v>
       </c>
       <c r="C23" t="n">
-        <v>1691.856917824071</v>
+        <v>1691.85691782407</v>
       </c>
       <c r="D23" t="n">
         <v>1384.7750193576</v>
       </c>
       <c r="E23" t="n">
-        <v>1050.170566899636</v>
+        <v>1050.170566899635</v>
       </c>
       <c r="F23" t="n">
-        <v>690.3684622503079</v>
+        <v>690.3684622503072</v>
       </c>
       <c r="G23" t="n">
-        <v>326.4798122355834</v>
+        <v>326.4798122355833</v>
       </c>
       <c r="H23" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463019</v>
       </c>
       <c r="I23" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463019</v>
       </c>
       <c r="J23" t="n">
         <v>436.3647919640086</v>
       </c>
       <c r="K23" t="n">
-        <v>770.184165653855</v>
+        <v>770.1841656538552</v>
       </c>
       <c r="L23" t="n">
         <v>1221.218378902264</v>
       </c>
       <c r="M23" t="n">
-        <v>2187.112260949476</v>
+        <v>1754.750283574188</v>
       </c>
       <c r="N23" t="n">
-        <v>2733.891078008258</v>
+        <v>2301.529100632971</v>
       </c>
       <c r="O23" t="n">
-        <v>3236.863548887595</v>
+        <v>3181.493750962426</v>
       </c>
       <c r="P23" t="n">
-        <v>3631.637915244773</v>
+        <v>3576.268117319604</v>
       </c>
       <c r="Q23" t="n">
-        <v>3879.924277000455</v>
+        <v>3879.924277000454</v>
       </c>
       <c r="R23" t="n">
         <v>4004.00059923151</v>
       </c>
       <c r="S23" t="n">
-        <v>3944.893730898885</v>
+        <v>3944.893730898884</v>
       </c>
       <c r="T23" t="n">
-        <v>3790.099783423387</v>
+        <v>3790.099783423386</v>
       </c>
       <c r="U23" t="n">
-        <v>3587.753106837503</v>
+        <v>3587.753106837502</v>
       </c>
       <c r="V23" t="n">
         <v>3307.874019634211</v>
@@ -6054,25 +6054,25 @@
         <v>472.4868560857217</v>
       </c>
       <c r="F24" t="n">
-        <v>325.9522981126067</v>
+        <v>325.9522981126066</v>
       </c>
       <c r="G24" t="n">
-        <v>189.5891979452248</v>
+        <v>189.5891979452247</v>
       </c>
       <c r="H24" t="n">
-        <v>99.08730358309228</v>
+        <v>99.08730358309222</v>
       </c>
       <c r="I24" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463019</v>
       </c>
       <c r="J24" t="n">
         <v>173.7572814752475</v>
       </c>
       <c r="K24" t="n">
-        <v>412.0214804555946</v>
+        <v>412.0214804555949</v>
       </c>
       <c r="L24" t="n">
-        <v>778.7196407682607</v>
+        <v>778.7196407682603</v>
       </c>
       <c r="M24" t="n">
         <v>1225.995965990576</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.8949750122965</v>
+        <v>746.894975012296</v>
       </c>
       <c r="C25" t="n">
-        <v>629.1425922246693</v>
+        <v>629.1425922246688</v>
       </c>
       <c r="D25" t="n">
-        <v>530.2097529526133</v>
+        <v>530.2097529526128</v>
       </c>
       <c r="E25" t="n">
-        <v>433.4804595104998</v>
+        <v>433.4804595104995</v>
       </c>
       <c r="F25" t="n">
-        <v>337.7743121528691</v>
+        <v>337.7743121528688</v>
       </c>
       <c r="G25" t="n">
-        <v>221.2552756678677</v>
+        <v>221.2552756678676</v>
       </c>
       <c r="H25" t="n">
-        <v>126.2218890260052</v>
+        <v>126.2218890260051</v>
       </c>
       <c r="I25" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463019</v>
       </c>
       <c r="J25" t="n">
         <v>175.3678869490539</v>
       </c>
       <c r="K25" t="n">
-        <v>429.5203124154182</v>
+        <v>379.3550698979303</v>
       </c>
       <c r="L25" t="n">
-        <v>796.2453533814024</v>
+        <v>746.0801108639147</v>
       </c>
       <c r="M25" t="n">
-        <v>1140.402398980951</v>
+        <v>1140.402398980952</v>
       </c>
       <c r="N25" t="n">
-        <v>1531.976018204304</v>
+        <v>1531.976018204305</v>
       </c>
       <c r="O25" t="n">
-        <v>1842.61056896374</v>
+        <v>1881.470859642206</v>
       </c>
       <c r="P25" t="n">
-        <v>2125.383311914888</v>
+        <v>2164.243602593354</v>
       </c>
       <c r="Q25" t="n">
-        <v>2253.15885058489</v>
+        <v>2253.158850584889</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.512193482698</v>
+        <v>2214.512193482697</v>
       </c>
       <c r="S25" t="n">
-        <v>2074.010109449804</v>
+        <v>2074.010109449803</v>
       </c>
       <c r="T25" t="n">
-        <v>1903.42729415961</v>
+        <v>1903.427294159609</v>
       </c>
       <c r="U25" t="n">
-        <v>1665.508227425533</v>
+        <v>1665.508227425532</v>
       </c>
       <c r="V25" t="n">
-        <v>1462.007539359926</v>
+        <v>1462.007539359925</v>
       </c>
       <c r="W25" t="n">
-        <v>1223.774169463245</v>
+        <v>1223.774169463244</v>
       </c>
       <c r="X25" t="n">
-        <v>1046.968418705507</v>
+        <v>1046.968418705506</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.3596397022566</v>
+        <v>877.3596397022559</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P26" t="n">
-        <v>3518.923563871313</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456133</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644863</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032351</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977796</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246646</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572835</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951511</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6309,46 +6309,46 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875143</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965681</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,22 +6403,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>878.8992091819737</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1329.933422430383</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1863.465327102307</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2410.244144161089</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490544</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847723</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603405</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257035</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913836</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415465</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643387</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,22 +6640,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1635.769886219269</v>
+        <v>1119.741581677076</v>
       </c>
       <c r="M32" t="n">
-        <v>2169.301790891193</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2716.080607949975</v>
+        <v>2200.052303407783</v>
       </c>
       <c r="O32" t="n">
-        <v>3219.053078829312</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803194</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6838,40 +6838,40 @@
         <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
         <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6938,19 +6938,19 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P35" t="n">
         <v>3750.042416521974</v>
@@ -6968,19 +6968,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415471</v>
@@ -7093,13 +7093,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7126,7 +7126,7 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
@@ -7135,10 +7135,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.879634793969</v>
+        <v>1116.774618643542</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.684944709349</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768131</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647468</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,64 +7306,64 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257036</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982155</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386254</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7488,19 +7488,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7646,28 +7646,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.89614187084</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N44" t="n">
-        <v>2548.674958929621</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7725,25 +7725,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,16 +7804,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L46" t="n">
         <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>204.9758093342895</v>
+        <v>204.9758093342897</v>
       </c>
       <c r="L8" t="n">
-        <v>217.0161097528857</v>
+        <v>217.0161097528859</v>
       </c>
       <c r="M8" t="n">
-        <v>209.4829058762129</v>
+        <v>209.4829058762131</v>
       </c>
       <c r="N8" t="n">
-        <v>208.2121457970537</v>
+        <v>208.212145797054</v>
       </c>
       <c r="O8" t="n">
-        <v>210.0787859308329</v>
+        <v>210.0787859308331</v>
       </c>
       <c r="P8" t="n">
-        <v>214.1468792646039</v>
+        <v>214.1468792646041</v>
       </c>
       <c r="Q8" t="n">
-        <v>209.4747279587403</v>
+        <v>209.4747279587405</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>120.8313713882155</v>
+        <v>120.8313713882156</v>
       </c>
       <c r="K9" t="n">
-        <v>127.5757920412204</v>
+        <v>127.5757920412205</v>
       </c>
       <c r="L9" t="n">
-        <v>124.7509506187523</v>
+        <v>124.7509506187524</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0260831566812</v>
+        <v>126.0260831566814</v>
       </c>
       <c r="N9" t="n">
-        <v>114.8074317919412</v>
+        <v>114.8074317919414</v>
       </c>
       <c r="O9" t="n">
-        <v>127.4706082116724</v>
+        <v>127.4706082116726</v>
       </c>
       <c r="P9" t="n">
-        <v>121.8347508378849</v>
+        <v>121.8347508378851</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.8667351544935</v>
+        <v>131.8667351544937</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.9607951918617</v>
+        <v>126.9607951918618</v>
       </c>
       <c r="M10" t="n">
-        <v>130.5711623489674</v>
+        <v>130.5711623489676</v>
       </c>
       <c r="N10" t="n">
-        <v>119.5295770947137</v>
+        <v>119.5295770947138</v>
       </c>
       <c r="O10" t="n">
-        <v>130.9231825035961</v>
+        <v>130.9231825035962</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2819166079671</v>
+        <v>131.2819166079672</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.424765920928163e-14</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>436.7292700760486</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>55.92908881330132</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>336.8335818149105</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>21.13839585591369</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.832108723649</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544151</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>65.51711806374334</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>71.87446026386971</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10592,16 +10592,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>274.8351763665443</v>
+        <v>402.5500016878935</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>62.52018570663853</v>
       </c>
       <c r="M38" t="n">
-        <v>124.5185911550057</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>274.8351763665432</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.8321087236471</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>306.6874953089261</v>
+        <v>209.1187564935597</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>167.1791157893252</v>
       </c>
       <c r="F11" t="n">
-        <v>214.4002821000068</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524985</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>73.9220791292561</v>
       </c>
       <c r="G13" t="n">
-        <v>23.84053689252384</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>246.3029030609028</v>
+        <v>148.7069925266683</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>73.9220791292562</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.65902652088181</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>314.6009296321306</v>
       </c>
       <c r="D17" t="n">
-        <v>304.0110794818061</v>
+        <v>304.011079481806</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5983159466199508</v>
+        <v>39.56660413525611</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>153.2460080007434</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>200.3232098200252</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>301.9745296463578</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>356.2040836028345</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>110.8508290819752</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.51579964929898</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>153.2460080007433</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.5659765171768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934546.6299458239</v>
+        <v>934546.6299458238</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934546.6299458238</v>
+        <v>934546.6299458237</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>950746.3309810034</v>
+        <v>950746.3309810036</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>950746.3309810035</v>
+        <v>950746.3309810036</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>430120.0778264452</v>
       </c>
       <c r="C2" t="n">
-        <v>430120.0778264451</v>
+        <v>430120.0778264452</v>
       </c>
       <c r="D2" t="n">
-        <v>430125.0432131032</v>
+        <v>430125.0432131029</v>
       </c>
       <c r="E2" t="n">
-        <v>396598.9159159879</v>
+        <v>396598.915915988</v>
       </c>
       <c r="F2" t="n">
-        <v>396598.915915988</v>
+        <v>396598.9159159881</v>
       </c>
       <c r="G2" t="n">
-        <v>403541.6449310655</v>
+        <v>403541.6449310654</v>
       </c>
       <c r="H2" t="n">
-        <v>403541.6449310652</v>
+        <v>403541.6449310657</v>
       </c>
       <c r="I2" t="n">
         <v>431046.9291787494</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="K2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.929178749</v>
       </c>
       <c r="N2" t="n">
+        <v>431046.9291787488</v>
+      </c>
+      <c r="O2" t="n">
         <v>431046.9291787486</v>
       </c>
-      <c r="O2" t="n">
-        <v>431046.9291787485</v>
-      </c>
       <c r="P2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787489</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25312.06338852369</v>
+        <v>25312.06338852343</v>
       </c>
       <c r="E3" t="n">
         <v>1133284.321149371</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>7276.025892760686</v>
+        <v>7276.025892760788</v>
       </c>
       <c r="H3" t="n">
-        <v>3.979039320256561e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45099.85441502756</v>
+        <v>45099.8544150275</v>
       </c>
       <c r="J3" t="n">
-        <v>33793.44926224776</v>
+        <v>33793.44926224774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7276.025892760657</v>
+        <v>7276.025892760805</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30304.08340211332</v>
+        <v>30304.08340211323</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>418002.9401975754</v>
+        <v>418002.9401975755</v>
       </c>
       <c r="E4" t="n">
-        <v>51785.79169101216</v>
+        <v>51785.79169101209</v>
       </c>
       <c r="F4" t="n">
-        <v>51785.7916910121</v>
+        <v>51785.79169101211</v>
       </c>
       <c r="G4" t="n">
-        <v>59328.45881705852</v>
+        <v>59328.45881705859</v>
       </c>
       <c r="H4" t="n">
-        <v>59328.45881705858</v>
+        <v>59328.45881705861</v>
       </c>
       <c r="I4" t="n">
-        <v>79454.17877615499</v>
+        <v>79454.17877615498</v>
       </c>
       <c r="J4" t="n">
+        <v>78703.96570883348</v>
+      </c>
+      <c r="K4" t="n">
         <v>78703.96570883349</v>
       </c>
-      <c r="K4" t="n">
-        <v>78703.96570883357</v>
-      </c>
       <c r="L4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883355</v>
+        <v>78703.96570883349</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883348</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34271.91803061348</v>
+        <v>34271.91803061347</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.6714704734</v>
+        <v>77801.67147047342</v>
       </c>
       <c r="F5" t="n">
         <v>77801.6714704734</v>
@@ -26494,19 +26494,19 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29030.66133965828</v>
+        <v>-29035.07491752645</v>
       </c>
       <c r="C6" t="n">
-        <v>-29030.66133965845</v>
+        <v>-29035.0749175265</v>
       </c>
       <c r="D6" t="n">
-        <v>-47461.87840360936</v>
+        <v>-47466.26833677921</v>
       </c>
       <c r="E6" t="n">
-        <v>-866272.8683948683</v>
+        <v>-866436.9065532628</v>
       </c>
       <c r="F6" t="n">
-        <v>267011.4527545026</v>
+        <v>266847.4145961085</v>
       </c>
       <c r="G6" t="n">
-        <v>258370.8784747998</v>
+        <v>258239.9009307629</v>
       </c>
       <c r="H6" t="n">
-        <v>265646.9043675599</v>
+        <v>265515.9268235239</v>
       </c>
       <c r="I6" t="n">
         <v>217615.0136212608</v>
       </c>
       <c r="J6" t="n">
-        <v>229171.5725328614</v>
+        <v>229171.5725328615</v>
       </c>
       <c r="K6" t="n">
-        <v>262965.0217951091</v>
+        <v>262965.0217951093</v>
       </c>
       <c r="L6" t="n">
         <v>255688.9959023484</v>
       </c>
       <c r="M6" t="n">
-        <v>55776.45350303611</v>
+        <v>55776.45350303641</v>
       </c>
       <c r="N6" t="n">
-        <v>262965.0217951088</v>
+        <v>262965.0217951092</v>
       </c>
       <c r="O6" t="n">
-        <v>232660.9383929956</v>
+        <v>232660.9383929958</v>
       </c>
       <c r="P6" t="n">
-        <v>262965.0217951091</v>
+        <v>262965.0217951093</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F2" t="n">
         <v>41.57692977292596</v>
       </c>
       <c r="G2" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="H2" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="I2" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859257</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296392129</v>
+        <v>29.5558729639209</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26808,13 +26808,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1001.000149807878</v>
+        <v>1001.000149807877</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208615</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>9.095032365950857</v>
+        <v>9.095032365950985</v>
       </c>
       <c r="H2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.88010425264172</v>
+        <v>37.88010425264155</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950821</v>
+        <v>9.095032365951006</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264164</v>
+        <v>37.88010425264154</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296392129</v>
+        <v>29.5558729639209</v>
       </c>
       <c r="E3" t="n">
         <v>1060.220827629377</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.320139545339103e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>169.598694405585</v>
+        <v>169.5986944055848</v>
       </c>
       <c r="J4" t="n">
-        <v>13.3363114007368</v>
+        <v>13.33631140073726</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950857</v>
+        <v>9.095032365950985</v>
       </c>
       <c r="M2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264172</v>
+        <v>37.88010425264155</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.320139545339103e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>205.8951748269222</v>
       </c>
       <c r="J8" t="n">
-        <v>1.864795794927632</v>
+        <v>1.864795794927765</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>142.4054431468987</v>
+        <v>142.4054431468988</v>
       </c>
       <c r="S8" t="n">
-        <v>206.3125139875906</v>
+        <v>206.3125139875907</v>
       </c>
       <c r="T8" t="n">
         <v>222.5757256087562</v>
@@ -27950,7 +27950,7 @@
         <v>111.6214628000195</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20782527814355</v>
+        <v>87.20782527814357</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.21073096700852</v>
+        <v>96.21073096700856</v>
       </c>
       <c r="S9" t="n">
         <v>170.5023303302321</v>
@@ -28032,10 +28032,10 @@
         <v>153.8476744721001</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59104857502662</v>
+        <v>89.59104857502666</v>
       </c>
       <c r="K10" t="n">
-        <v>16.07729417868754</v>
+        <v>16.07729417868762</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.69910643414227</v>
+        <v>81.69910643414232</v>
       </c>
       <c r="R10" t="n">
-        <v>174.8969430545538</v>
+        <v>174.8969430545539</v>
       </c>
       <c r="S10" t="n">
         <v>223.087768389893</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="C11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="D11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="E11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="G11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="H11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="T11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="U11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="V11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="W11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="X11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="C13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="D13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="E13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="F13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="G13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="H13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="I13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="K13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="L13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="M13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="N13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="O13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="P13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="R13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="S13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="T13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="U13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="V13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="W13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="X13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292594</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="C17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="D17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="E17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="F17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="G17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="H17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="T17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="U17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="V17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="W17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="X17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="C19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="D19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="E19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="F19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="G19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="H19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="I19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="J19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="K19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="L19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="M19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="N19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="O19" t="n">
-        <v>50.67196213887681</v>
+        <v>11.41914327173799</v>
       </c>
       <c r="P19" t="n">
-        <v>11.41914327174106</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="S19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="T19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="U19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="V19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="W19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="X19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.67196213887681</v>
+        <v>50.67196213887694</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="C20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="D20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="E20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="F20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="G20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="H20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="T20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="U20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="V20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="W20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="X20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="C22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="D22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="E22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="F22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="G22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="H22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="I22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="J22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="K22" t="n">
-        <v>11.41914327173978</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="L22" t="n">
-        <v>50.67196213887686</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>11.41914327173833</v>
       </c>
       <c r="O22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="P22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="R22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="S22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="T22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="U22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="V22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="W22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="X22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="C23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="D23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="E23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="F23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="G23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="H23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="T23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="U23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="V23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="W23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="X23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="C25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="D25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="E25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="F25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="G25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="H25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="I25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="J25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="K25" t="n">
-        <v>50.67196213887686</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="N25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="O25" t="n">
-        <v>11.4191432717401</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="P25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.67196213887686</v>
+        <v>11.41914327173778</v>
       </c>
       <c r="R25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="S25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="T25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="U25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="V25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="W25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="X25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887694</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185908</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1188175797544574</v>
+        <v>0.1188175797544558</v>
       </c>
       <c r="H8" t="n">
-        <v>1.216840538660337</v>
+        <v>1.216840538660321</v>
       </c>
       <c r="I8" t="n">
-        <v>4.580714743483722</v>
+        <v>4.580714743483662</v>
       </c>
       <c r="J8" t="n">
-        <v>10.08449355968489</v>
+        <v>10.08449355968475</v>
       </c>
       <c r="K8" t="n">
-        <v>15.11404171069107</v>
+        <v>15.11404171069087</v>
       </c>
       <c r="L8" t="n">
-        <v>18.75030521710155</v>
+        <v>18.7503052171013</v>
       </c>
       <c r="M8" t="n">
-        <v>20.86332735105988</v>
+        <v>20.8633273510596</v>
       </c>
       <c r="N8" t="n">
-        <v>21.20091779953723</v>
+        <v>21.20091779953695</v>
       </c>
       <c r="O8" t="n">
-        <v>20.01942549085384</v>
+        <v>20.01942549085358</v>
       </c>
       <c r="P8" t="n">
-        <v>17.08611649066567</v>
+        <v>17.08611649066545</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.83096191570917</v>
+        <v>12.830961915709</v>
       </c>
       <c r="R8" t="n">
-        <v>7.463674794250939</v>
+        <v>7.46367479425084</v>
       </c>
       <c r="S8" t="n">
-        <v>2.7075555986547</v>
+        <v>2.707555598654664</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5201239553751373</v>
+        <v>0.5201239553751305</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009505406380356587</v>
+        <v>0.009505406380356461</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06357300977145335</v>
+        <v>0.06357300977145251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6139814364769312</v>
+        <v>0.6139814364769229</v>
       </c>
       <c r="I9" t="n">
-        <v>2.18880757327153</v>
+        <v>2.188807573271501</v>
       </c>
       <c r="J9" t="n">
-        <v>6.006255278451214</v>
+        <v>6.006255278451134</v>
       </c>
       <c r="K9" t="n">
-        <v>10.26564693313859</v>
+        <v>10.26564693313845</v>
       </c>
       <c r="L9" t="n">
-        <v>13.80342916112192</v>
+        <v>13.80342916112174</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1079507653371</v>
+        <v>16.10795076533689</v>
       </c>
       <c r="N9" t="n">
-        <v>16.53428029139216</v>
+        <v>16.53428029139194</v>
       </c>
       <c r="O9" t="n">
-        <v>15.12563623277206</v>
+        <v>15.12563623277186</v>
       </c>
       <c r="P9" t="n">
-        <v>12.13965657644533</v>
+        <v>12.13965657644517</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.115038931527975</v>
+        <v>8.115038931527868</v>
       </c>
       <c r="R9" t="n">
-        <v>3.947103185634623</v>
+        <v>3.94710318563457</v>
       </c>
       <c r="S9" t="n">
-        <v>1.180840773605722</v>
+        <v>1.180840773605707</v>
       </c>
       <c r="T9" t="n">
-        <v>0.256243842017393</v>
+        <v>0.2562438420173896</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004182434853385091</v>
+        <v>0.004182434853385035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05329747583657937</v>
+        <v>0.05329747583657867</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4738630124379515</v>
+        <v>0.4738630124379452</v>
       </c>
       <c r="I10" t="n">
-        <v>1.602800455158224</v>
+        <v>1.602800455158203</v>
       </c>
       <c r="J10" t="n">
-        <v>3.768131541646162</v>
+        <v>3.768131541646112</v>
       </c>
       <c r="K10" t="n">
-        <v>6.192197647195312</v>
+        <v>6.192197647195229</v>
       </c>
       <c r="L10" t="n">
-        <v>7.923881089376539</v>
+        <v>7.923881089376434</v>
       </c>
       <c r="M10" t="n">
-        <v>8.354621598637618</v>
+        <v>8.354621598637507</v>
       </c>
       <c r="N10" t="n">
-        <v>8.155967370519466</v>
+        <v>8.155967370519358</v>
       </c>
       <c r="O10" t="n">
-        <v>7.533355948246695</v>
+        <v>7.533355948246595</v>
       </c>
       <c r="P10" t="n">
-        <v>6.44608744118047</v>
+        <v>6.446087441180385</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.462936817552115</v>
+        <v>4.462936817552056</v>
       </c>
       <c r="R10" t="n">
-        <v>2.39644832261565</v>
+        <v>2.396448322615619</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9288296470792966</v>
+        <v>0.9288296470792843</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2277255785744755</v>
+        <v>0.2277255785744724</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002907135045631606</v>
+        <v>0.002907135045631567</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,10 +31835,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31847,28 +31847,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,10 +32309,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,28 +32321,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138803</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35495,19 +35495,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.1553463859922</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K13" t="n">
         <v>247.6245893172455</v>
       </c>
       <c r="L13" t="n">
-        <v>361.3343019431241</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M13" t="n">
         <v>389.2103091664098</v>
       </c>
       <c r="N13" t="n">
-        <v>386.4338759404661</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O13" t="n">
         <v>343.9300599955657</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599215</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K16" t="n">
         <v>247.6245893172455</v>
@@ -35811,7 +35811,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
         <v>386.433875940466</v>
@@ -35820,7 +35820,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q16" t="n">
         <v>119.9711683108196</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,19 +35969,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.250378751943</v>
+        <v>96.25037875194317</v>
       </c>
       <c r="K19" t="n">
-        <v>256.7196216831964</v>
+        <v>256.7196216831965</v>
       </c>
       <c r="L19" t="n">
-        <v>370.4293343090749</v>
+        <v>370.4293343090751</v>
       </c>
       <c r="M19" t="n">
-        <v>398.3053415323606</v>
+        <v>398.3053415323608</v>
       </c>
       <c r="N19" t="n">
-        <v>395.5289083064168</v>
+        <v>395.5289083064171</v>
       </c>
       <c r="O19" t="n">
-        <v>353.0250923615165</v>
+        <v>313.7722734943778</v>
       </c>
       <c r="P19" t="n">
-        <v>246.3762144168514</v>
+        <v>285.6290332839874</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.25037875194306</v>
+        <v>96.25037875194317</v>
       </c>
       <c r="K22" t="n">
-        <v>217.4668028160593</v>
+        <v>256.7196216831965</v>
       </c>
       <c r="L22" t="n">
-        <v>370.4293343090749</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>398.3053415323607</v>
+        <v>398.3053415323608</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>356.2760894392784</v>
       </c>
       <c r="O22" t="n">
-        <v>353.0250923615166</v>
+        <v>353.0250923615167</v>
       </c>
       <c r="P22" t="n">
-        <v>285.6290332839873</v>
+        <v>285.6290332839874</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.0662006767705</v>
+        <v>129.0662006767706</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>975.6503859062751</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>306.7233936170208</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340061</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>96.25037875194306</v>
+        <v>96.25037875194317</v>
       </c>
       <c r="K25" t="n">
-        <v>256.7196216831964</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>370.4293343090749</v>
+        <v>370.4293343090751</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>398.3053415323608</v>
       </c>
       <c r="N25" t="n">
-        <v>395.5289083064169</v>
+        <v>395.5289083064171</v>
       </c>
       <c r="O25" t="n">
-        <v>313.7722734943798</v>
+        <v>353.0250923615167</v>
       </c>
       <c r="P25" t="n">
-        <v>285.6290332839873</v>
+        <v>285.6290332839874</v>
       </c>
       <c r="Q25" t="n">
-        <v>129.0662006767705</v>
+        <v>89.81338180963144</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>875.7546976451373</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36613,10 +36613,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>80.75159439813847</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>615.0233952790495</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,19 +36996,19 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>521.1072324560755</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>470.6364464832413</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>827.1370117794555</v>
+        <v>954.851837100805</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>518.1103000989707</v>
       </c>
       <c r="M38" t="n">
-        <v>663.4397069852322</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887889</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>676.5940949430189</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>814.7404961971451</v>
+        <v>717.1717573817788</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
